--- a/data/Neutrino-Experiments.xlsx
+++ b/data/Neutrino-Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nu-nubar" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>experiment</t>
   </si>
@@ -39,9 +39,6 @@
     <t>NO$\nu$A</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>KARMEN</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>RENO</t>
-  </si>
-  <si>
-    <t>CCFR</t>
   </si>
   <si>
     <t>OscSNS</t>
@@ -459,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -476,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -512,7 +506,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1.61E+18</v>
@@ -526,7 +520,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>2.7885E+18</v>
@@ -540,7 +534,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>1.4956499999999999E+21</v>
@@ -559,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -597,7 +591,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>3.71E+21</v>
@@ -611,7 +605,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>6.54E+21</v>
@@ -625,7 +619,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>7.6099999999999998E+26</v>
@@ -639,7 +633,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5.8305E+18</v>
@@ -655,80 +649,69 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="B7" s="1">
+        <v>1.61E+18</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>1.61E+18</v>
+        <v>3.16875E+18</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>3.16875E+18</v>
+        <v>6.591E+17</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>6.591E+17</v>
+        <v>5.07E+18</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>5.07E+18</v>
+        <v>3.042E+18</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.042E+18</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
         <v>100</v>
       </c>
     </row>
@@ -777,7 +760,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>8.9739E+16</v>
@@ -791,7 +774,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>1.0064E+19</v>
@@ -805,7 +788,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>5.32E+18</v>
@@ -819,7 +802,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>5.07E+18</v>
@@ -833,7 +816,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>7E+18</v>
@@ -847,7 +830,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>6.9966E+18</v>
@@ -861,7 +844,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>3.042E+17</v>
@@ -875,7 +858,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>7.61E+18</v>
@@ -889,7 +872,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
         <v>4.06E+19</v>
@@ -903,7 +886,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>1.01E+20</v>

--- a/data/Neutrino-Experiments.xlsx
+++ b/data/Neutrino-Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="nu-nubar" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +463,7 @@
     <col min="2" max="2" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -489,8 +490,12 @@
       <c r="D2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="2">
+        <f>B2/5070000000000000000</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -503,8 +508,12 @@
       <c r="D3">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F6" si="0">B3/5070000000000000000</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -517,8 +526,12 @@
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31755424063116372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -531,8 +544,12 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -545,9 +562,14 @@
       <c r="D6">
         <v>0.8</v>
       </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -555,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -722,10 +744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,7 +755,7 @@
     <col min="1" max="1" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -757,8 +779,12 @@
       <c r="D2">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="2">
+        <f>B2/5070000000000000000</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -771,8 +797,12 @@
       <c r="D3">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F12" si="0">B3/5070000000000000000</f>
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -785,8 +815,12 @@
       <c r="D4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9850098619329388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -799,8 +833,12 @@
       <c r="D5">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0493096646942801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -813,8 +851,12 @@
       <c r="D6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -827,8 +869,12 @@
       <c r="D7">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3806706114398422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -841,8 +887,12 @@
       <c r="D8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -855,8 +905,12 @@
       <c r="D9">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -869,8 +923,12 @@
       <c r="D10">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5009861932938855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -883,8 +941,12 @@
       <c r="D11">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.007889546351084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -896,6 +958,10 @@
       </c>
       <c r="D12">
         <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>19.921104536489153</v>
       </c>
     </row>
   </sheetData>
